--- a/files/running_statistics.xlsx
+++ b/files/running_statistics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>5 km</t>
   </si>
@@ -38,18 +38,9 @@
     <t>marathon</t>
   </si>
   <si>
-    <t>did not participate</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>~ 5:30 mins/mile</t>
   </si>
   <si>
-    <t>38:21</t>
-  </si>
-  <si>
     <t>~ 6:12 mins/mile</t>
   </si>
   <si>
@@ -63,6 +54,12 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>~6.45 mins/mile</t>
+  </si>
+  <si>
+    <t>~</t>
   </si>
 </sst>
 </file>
@@ -130,16 +127,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -425,7 +422,7 @@
   <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,28 +434,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.7104166666666667</v>
+      <c r="B3" s="5">
+        <v>1.1840277777777778E-2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>2019</v>
@@ -468,11 +465,11 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
+      <c r="B4" s="5">
+        <v>2.6631944444444444E-2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>2019</v>
@@ -482,28 +479,24 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2016</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>
